--- a/漏洞信息 .xlsx
+++ b/漏洞信息 .xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="284">
-  <si>
-    <t>漏洞描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="301">
   <si>
     <t>漏洞攻击方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Solr 是一个开源的搜索服务器。Solr 使用 Java 语言开发，主要基于 HTTP 和 Apache Lucene 实现。Lucene是apache软件基金会4 jakarta项目组的一个子项目，是一个开放源代码的全文检索引擎工具包。Apache Solr/Lucene存在远程代码执行漏洞。攻击者利用该漏洞可以获取敏感信息，或者在受影响应用程序上下文中执行任意代码漏洞 。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apache Solr&lt; 7.1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,11 +166,6 @@
   </si>
   <si>
     <t>Apache Struts2:2.0.0 - 2.3.14.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apache Struts框架是一个基于Java Servlets,JavaBeans, 和 JavaServer Pages (JSP)的Web应用框架的开源项目。Apache Struts 2星号匹配机制存在安全漏洞及存在OGNL表达式两次求值，允许远程攻击者利用漏洞执行任意代码。
-Apache Struts 2允许定义基于星号的action映射，如果请求不匹配任何所定义的action，就会匹配星号，且请求的action名会用于加载基于action名的JSP文件，及把{1}值作为OGNL表达式处理，结果允许在服务端执行任意Java代码。此漏洞包含两个问题的组合：1，请求的action名没有转义或针对白名单进行检查。2，当组合使用$和%开放字符时对TextParseUtil.translateVariables中的OGNL表达式进行两次求值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -256,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Struts2框架是一个用于开发Java EE网络应用程序的Web框架。Apache Struts于2020年8月13日披露 S2-059 Struts 远程代码执行漏洞（CVE-2019-0230），在使用某些tag等情况下可能存在OGNL表达式注入漏洞，从而造成远程代码执行，风险极大。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apache Struts2:2.0.0 - 2.5.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,19 +251,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Struts2框架是一个用于开发Java EE网络应用程序的Web框架。Apache Struts于2020年12月08日披露 S2-061 Struts 远程代码执行漏洞（CVE-2020-17530），在使用某些tag等情况下可能存在OGNL表达式注入漏洞，从而造成远程代码执行，风险极大。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>升级Struts2到2.5.26或以上版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Apache Struts2:2.1.0 - 2.5.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apache ActiveMQ是Apache软件基金会所研发的一套开源的消息中间件，它支持Java消息服务、集群、Spring Framework等。Apache ActiveMQ 5.13.0之前5.x版本中存在安全漏洞，该漏洞源于程序未能限制可在代理中序列化的类。远程攻击者可借助特制的序列化的Java Message Service(JMS)ObjectMessage对象利用该漏洞执行任意代码。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -364,26 +339,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache ActiveMQ是消息传输和集成模式提供程序。Apache ActiveMQ Fileserver web程序存在远程代码执行漏洞，可使远程攻击者用恶意代码替代Web应用，在受影响系统上执行远程代码。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apache ActiveMQ Fileserver web程序存在远程代码执行漏洞，可使远程攻击者用恶意代码替代Web应用，在受影响系统上执行远程代码。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Druid 是用Java编写的面向列的开源分布式数据存储，旨在快速获取大量事件数据，并在数据之上提供低延迟查询。近日，Apache Druid官方发布安全更新，修复了由阿里云安全发现的CVE-2021-25646 Apache Druid 远程代码执行漏洞。由于Apache Druid 默认情况下缺乏授权认证，攻击者可直接构造恶意请求执行任意代码，控制服务器，风险极大。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>由于Apache Druid 默认情况下缺乏授权认证，攻击者可直接构造恶意请求执行任意代码，控制服务器，风险极大。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Shiro是Apache软件基金会的一套用于执行认证、授权、加密和会话管理的Java安全框架。 Apache Shiro 1.0.0版本至1.2.4版本中存在信息泄露漏洞，该漏洞源于程序未能正确配置&amp;lsquo;remember me&amp;rsquo;功能使用的密钥。攻击者可通过发送带有特制参数的请求利用该漏洞执行任意代码或访问受限制内容。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> Apache Shiro 1.0.0版本至1.2.4版本中存在信息泄露漏洞，该漏洞源于程序未能正确配置&amp;lsquo;remember me&amp;rsquo;功能使用的密钥。攻击者可通过发送带有特制参数的请求利用该漏洞执行任意代码或访问受限制内容。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,26 +355,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在Apache Solr中，DataImportHandler是一个可选但常用的模块，用于从数据库和其他源中提取数据，它具有一个功能，其中整个DIH配置可以来自请求的“dataConfig”参数。 DIH管理界面的调试模式使用它来方便调试/开发DIH配置。由于DIH配置可以包含脚本，因此该参数存在安全风险。从Solr的8.2.0版开始，使用此参数需要将Java System属性“enable.dih.dataConfigParam”设置为true。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>由于DIH配置可以包含脚本，因此该参数存在安全风险。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Solr 5.0.0到Apache Solr 8.3.1容易受到通过VelocityResponseWriter执行的远程代码的攻击。Velocity模板可以通过configset ' Velocity / '目录中的Velocity模板或作为参数提供。用户定义的configset可以包含可呈现的、潜在的恶意模板。参数提供的模板在默认情况下是禁用的，但是可以通过设置params.resource.loader来启用。通过定义一个响应写入器并将其设置为true来启用。定义响应编写器需要配置API访问。Solr 8.4完全删除了params资源加载器，只有在configset是“可信的”(由经过身份验证的用户上传)时才启用configset提供的模板呈现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apache Solr 5.0.0到Apache Solr 8.3.1容易受到通过VelocityResponseWriter执行的远程代码的攻击。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache-Solr任意文件读取漏洞漏洞，攻击者可以在未授权的情况下读取目标服务器敏感文件和相关内容。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击者可以在未授权的情况下读取目标服务器敏感文件和相关内容。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -420,10 +371,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Struts 2.0.0至2.1.8.1中XWork中的OGNL广泛表达式评估功能，如Atlassian Fisheye、Crucible和其他产品中所使用的，使用了一个允许的白名单，允许远程攻击者通过（1）#context、（2）#_memberAccess、（3）#root、（4）#this、，（5）#_typeResolver、（6）#_classResolver，（7）#_traceEvaluations、（8）#_lastEvaluation、（9）#_keepLastEvaluation，以及可能的其他OGNL上下文变量，这是一个与CVE-2008-6504不同的漏洞。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>允许远程攻击者通过（1）#context、（2）#_memberAccess、（3）#root、（4）#this、，（5）#_typeResolver、（6）#_classResolver，（7）#_traceEvaluations、（8）#_lastEvaluation、（9）#_keepLastEvaluation，以及可能的其他OGNL上下文变量，这是一个与CVE-2008-6504不同的漏洞。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,18 +379,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Struts是一款建立Java web应用程序的开放源代码架构。漏洞允许恶意用户绕过内置在ParametersInterceptor中的所有保护(正则表达式模式，拒绝方法调用)，可在任何输出字符串注入恶意表达式作进一步求值。ParametersInterceptor中正则表达式把top[&amp;#39;foo&amp;#39;](0)作为合法表达式，而OGNL作为(top[&amp;#39;foo&amp;#39;])(0)处理，把&amp;#39;foo&amp;#39; action参数值作为OGNL表达式求值。这可导致恶意用户把任意OGNL语句设置在action输出的任意字符串变量中，并以OGNL表示求值，由于OGNL语句在HTTP参数值中，攻击者可以使用黑名单字符如#禁用方法的执行并执行任意方法，绕过ParametersInterceptor和OGNL库保护。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>漏洞允许恶意用户绕过内置在ParametersInterceptor中的所有保护(正则表达式模式，拒绝方法调用)，可在任何输出字符串注入恶意表达式作进一步求值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Struts框架是一个基于 Java Servlets,JavaBeans, 和 JavaServer Pages (JSP)的Web应用框架的开源项目。Apache Struts2的s:a和s:url标签都提供了一个includeParams属性。此属性允许使用的值包括none、get、all。当该属性被设置为get或all时，Apache Struts2会将用户提交的参数值作为Ognl表达式执行。攻击者可以提交带有恶意的Ongl表达式，达到执行任意Java代码的目的。只要基于Apache Struts2开发的JSP代码中使用了url/a标签并且设置了includeParams属性为all或get，远程攻击者即可利用此漏执行任意命令。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击者可以提交带有恶意的Ongl表达式，达到执行任意Java代码的目的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -452,10 +391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Struts框架是一个基于Java Servlets,JavaBeans, 和 JavaServer Pages (JSP)的Web应用框架的开源项目。Apache Struts 2 DefaultActionMapper在处理短路径重定向参数前缀"action:"/"redirect:"/"redirectAction:"时存在命令执行漏洞，由于对"action:"/"redirect:"/"redirectAction:"后的URL信息使用OGNL表达式处理，远程攻击者可以利用漏洞提交特殊URL可用于执行任意Java代码。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apache Struts 2 DefaultActionMapper在处理短路径重定向参数前缀"action:"/"redirect:"/"redirectAction:"时存在命令执行漏洞，由于对"action:"/"redirect:"/"redirectAction:"后的URL信息使用OGNL表达式处理，远程攻击者可以利用漏洞提交特殊URL可用于执行任意Java代码。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -468,60 +403,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Struts是一款用于创建企业级Java Web应用的开源框架。Struts2存在远程代码执行漏洞，攻击者利用漏洞可在启动动态方法调用的服务器端执行任意代码。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Struts2存在远程代码执行漏洞，攻击者利用漏洞可在启动动态方法调用的服务器端执行任意代码。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Struts是一款用于创建企业级Java Web应用的开源框架。Apache Struts2存在S2-045/S2-045远程代码执行漏洞。远程攻击者利用该漏洞可直接取得网站服务器控制权。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apache Struts2存在S2-045/S2-045远程代码执行漏洞。远程攻击者利用该漏洞可直接取得网站服务器控制权。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Struts是一款用于创建企业级Java Web应用的开源框架。Apache Struts2存在S2-045/S2-045远程代码执行漏洞。远程攻击者利用该漏洞可直接取得网站服务器控制权。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apache Struts2存在S2-045/S2-045远程代码执行漏洞。远程攻击者利用该漏洞可直接取得网站服务器控制权。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Struts是一款用于创建企业级Java Web应用的开源框架。Apache Struts2 2.3.x版本中存在S2-048远程代码执行漏洞。该漏洞存在Struts2和Struts1一个Showcase插件Action Message类中，攻击者可通过构建不可信的输入实现远程命令攻击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apache Struts2 2.3.x版本中存在S2-048远程代码执行漏洞。该漏洞存在Struts2和Struts1一个Showcase插件Action Message类中，攻击者可通过构建不可信的输入实现远程命令攻击。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Struts2 是Apache软件基金会负责维护的一个基于MVC设计模式的Web应用框架开源项目。Apache Struts2 REST插件存在远程代码执行漏洞，由于使用XStream组件对XML格式的数据包进行反序列化操作时，未对数据内容进行有效验证，导致攻击者可构造恶意的XML内容执行任意代码。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apache Struts2 REST插件存在远程代码执行漏洞，由于使用XStream组件对XML格式的数据包进行反序列化操作时，未对数据内容进行有效验证，导致攻击者可构造恶意的XML内容执行任意代码。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Struts2是Apache软件基金会负责维护的一个基于MVC设计模式的Web应用框架开源项目。
-Apache Struts2存在S2-057远程代码执行漏洞。漏洞触发条件：1、定义XML配置时namespace值未设置且上层动作配置（Action Configuration）中未设置或用通配符namespace。2、url标签未设置value和action值且上层动作未设置或用通配符namespace。攻击者可利用漏洞执行RCE攻击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apache Struts2存在S2-057远程代码执行漏洞。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在使用某些tag等情况下可能存在OGNL表达式注入漏洞，从而造成远程代码执行，风险极大。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apache Struts2框架是一个用于开发Java EE网络应用程序的Web框架。Apache Struts于2020年12月08日披露 S2-061 Struts 远程代码执行漏洞（CVE-2020-17530），在使用某些tag等情况下可能存在OGNL表达式注入漏洞，从而造成远程代码执行，风险极大。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -584,10 +490,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VMware Spring Cloud Config是美国威睿（VMware）公司的一套分布式系统的配置管理解决方案。该产品主要为分布式系统中的外部配置提供服务器和客户端支持。 VMware Spring Cloud Config 2.2.3之前的2.2.x版本、2.1.9之前的2.1.x版本和不再受支持的旧版本中的Spring-cloud-config-server模块存在路径遍历漏洞，该漏洞源于程序没有正确验证用户请求。攻击者可借助特制URL利用该漏洞查看系统上的任意文件。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> VMware Spring Cloud Config 2.2.3之前的2.2.x版本、2.1.9之前的2.1.x版本和不再受支持的旧版本中的Spring-cloud-config-server模块存在路径遍历漏洞，该漏洞源于程序没有正确验证用户请求。攻击者可借助特制URL利用该漏洞查看系统上的任意文件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -749,10 +651,6 @@
   </si>
   <si>
     <t>建议您更新至1.2.62以上版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击劫持(ClickJacking)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -794,10 +692,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CSRF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>跨站请求伪造，通过伪装成受信任用户的请求来利用受信任的网站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1167,6 +1061,179 @@
   </si>
   <si>
     <t>中危 6.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏洞描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏洞类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反序列化漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache ActiveMQ是Apache研发的一套开源消息中间件，它支持Java消息服务、集群、Spring Framework等。Apache ActiveMQ 5.13.0之前5.x版本中存在安全漏洞，该漏洞源于程序未能限制可在代理中序列化的类。远程攻击者可借助特制的序列化的Java Message Service(JMS)ObjectMessage对象利用该漏洞执行任意代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache ActiveMQ Fileserver web程序存在远程代码执行漏洞，可使远程攻击者用恶意代码替代Web应用，在受影响系统上执行远程代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Druid 是用Java编写的面向列的开源分布式数据存储，旨在快速获取大量事件数据，并在数据之上提供低延迟查询。由于Apache Druid 默认情况下缺乏授权认证，攻击者可直接构造恶意请求执行任意代码，控制服务器，风险极大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Shiro是Apache一套用于执行认证、授权、加密和会话管理的Java安全框架。 Apache Shiro 1.0.0版本至1.2.4版本中存在信息泄露漏洞，该漏洞源于程序未能正确配置&amp;lsquo;remember me&amp;rsquo;功能使用的密钥。攻击者可通过发送带有特制参数的请求利用该漏洞执行任意代码或访问受限制内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Solr 是一个开源的搜索服务器。Apache Solr存在远程代码执行漏洞。攻击者利用该漏洞可以获取敏感信息，或者在受影响应用程序上下文中执行任意代码漏洞 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Apache Solr中，DataImportHandler是一个可选但常用的模块，用于从数据库和其他源中提取数据。 DIH管理界面的调试模式使用它来方便调试/开发DIH配置。由于DIH配置可以包含脚本，因此该参数存在安全风险。从Solr的8.2.0版开始，使用此参数需要将Java System属性“enable.dih.dataConfigParam”设置为true。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache-Solr任意文件读取漏洞，攻击者可以在未授权的情况下读取目标服务器敏感文件和相关内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Solr 5.0.0到Apache Solr 8.3.1容易受到通过VelocityResponseWriter执行的远程代码的攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意文件读取漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSRF漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts 2.0.0至2.1.8.1中XWork中的OGNL广泛表达式评估功能，如Atlassian Fisheye、Crucible和其他产品中所使用的，使用了一个允许的白名单，允许远程攻击者通过（1）#context、（2）#_memberAccess、（3）#root、（4）#this、，（5）#_typeResolver、（6）#_classResolver，（7）#_traceEvaluations、（8）#_lastEvaluation、（9）#_keepLastEvaluation，以及可能的其他OGNL上下文变量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Struts是一款建立Java web应用程序的开放源代码架构。漏洞允许恶意用户绕过内置在ParametersInterceptor中的所有保护(正则表达式模式，拒绝方法调用)，可在任何输出字符串注入恶意表达式作进一步求值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Struts2的s:a和s:url标签都提供了一个includeParams属性。此属性允许使用的值包括none、get、all。当该属性被设置为get或all时，Apache Struts2会将用户提交的参数值作为Ognl表达式执行。攻击者可以提交带有恶意的Ongl表达式，达到执行任意Java代码的目的。只要基于Apache Struts2开发的JSP代码中使用了url/a标签并且设置了includeParams属性为all或get，远程攻击者即可利用此漏执行任意命令。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Struts 2星号匹配机制存在安全漏洞及存在OGNL表达式两次求值，允许远程攻击者利用漏洞执行任意代码。
+Apache Struts 2允许定义基于星号的action映射，如果请求不匹配任何所定义的action，就会匹配星号，且请求的action名会用于加载基于action名的JSP文件，及把{1}值作为OGNL表达式处理，结果允许在服务端执行任意Java代码。此漏洞包含两个问题的组合：1，请求的action名没有转义或针对白名单进行检查。2，当组合使用$和%开放字符时对TextParseUtil.translateVariables中的OGNL表达式进行两次求值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表达式注入漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Struts 2 DefaultActionMapper在处理短路径重定向参数前缀"action:"/"redirect:"/"redirectAction:"时存在命令执行漏洞，由于对"action:"/"redirect:"/"redirectAction:"后的URL信息使用OGNL表达式处理，远程攻击者可以利用漏洞提交特殊URL可用于执行任意Java代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程命令执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程命令执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程命令执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程命令执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2存在远程代码执行漏洞，攻击者利用漏洞可在启动动态方法调用的服务器端执行任意代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Struts2存在远程代码执行漏洞。远程攻击者利用该漏洞可直接取得网站服务器控制权。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程命令执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Struts2存在远程代码执行漏洞。远程攻击者利用该漏洞可直接取得网站服务器控制权。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Struts2 2.3.x版本中存在远程代码执行漏洞。该漏洞存在Struts2和Struts1一个Showcase插件Action Message类中，攻击者可通过构建不可信的输入实现远程命令攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Struts2 REST插件存在远程代码执行漏洞，由于使用XStream组件对XML格式的数据包进行反序列化操作时，未对数据内容进行有效验证，导致攻击者可构造恶意的XML内容执行任意代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Struts2存在S2-057远程代码执行漏洞。漏洞触发条件：1、定义XML配置时namespace值未设置且上层动作配置（Action Configuration）中未设置或用通配符namespace。2、url标签未设置value和action值且上层动作未设置或用通配符namespace。攻击者可利用漏洞执行RCE攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程命令执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> S2-059 Struts 远程代码执行漏洞（CVE-2019-0230），在使用某些tag等情况下可能存在OGNL表达式注入漏洞，从而造成远程代码执行，风险极大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> S2-061 Struts 远程代码执行漏洞（CVE-2020-17530），在使用某些tag等情况下可能存在OGNL表达式注入漏洞，从而造成远程代码执行，风险极大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2-061 Struts 远程代码执行漏洞（CVE-2020-17530），在使用某些tag等情况下可能存在OGNL表达式注入漏洞，从而造成远程代码执行，风险极大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反序列化任意代码执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反序列化任意代码执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反序列化任意代码执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程命令执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录遍历漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> VMware Spring Cloud Config 2.2.3之前的2.2.x版本、2.1.9之前的2.1.x版本和不再受支持的旧版本中的Spring-cloud-config-server模块存在路径遍历漏洞，该漏洞源于程序没有正确验证用户请求。攻击者可借助特制URL利用该漏洞查看系统上的任意文件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录遍历漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击劫持漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSRF漏洞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1255,9 +1322,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1567,1165 +1637,1287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="28.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6">
+        <v>42186</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="6">
+        <v>42439</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="6">
+        <v>44217</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="6">
+        <v>42492</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="6">
+        <v>42954</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="6">
+        <v>43418</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" s="6">
+        <v>43752</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="6">
+        <v>44273</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="6">
+        <v>44257</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="6">
+        <v>40308</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="6">
+        <v>40916</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="6">
+        <v>40817</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="6">
+        <v>41324</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="6">
+        <v>41324</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="6">
+        <v>41324</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="6">
+        <v>42354</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="6">
+        <v>42439</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="6">
+        <v>42764</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="6">
+        <v>42764</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="6">
+        <v>42907</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="6">
+        <v>42907</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="6">
+        <v>43256</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="H24" s="6">
+        <v>43418</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="6">
+        <v>44055</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" s="6">
+        <v>44055</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="6">
+        <v>44331</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="6">
+        <v>43396</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H29" s="6">
+        <v>43396</v>
+      </c>
+      <c r="I29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5">
-        <v>42186</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="J29" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="6">
+        <v>43396</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H31" s="6">
+        <v>43184</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="6">
+        <v>43745</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="6">
+        <v>43075</v>
+      </c>
+      <c r="I33" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="J33" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="6">
+        <v>43468</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="6">
+        <v>43833</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="5">
-        <v>42439</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9"/>
+      <c r="B40" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="5">
-        <v>44217</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="5">
-        <v>42492</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="E40" s="11"/>
+      <c r="F40" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="G6" s="5">
-        <v>42954</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="G40" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="G7" s="5">
-        <v>43418</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="H40" s="9"/>
+      <c r="I40" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="G8" s="5">
-        <v>43752</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="5">
-        <v>44273</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="5">
-        <v>44257</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G11" s="5">
-        <v>40308</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="5">
-        <v>40916</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="5">
-        <v>40817</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="5">
-        <v>41324</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="5">
-        <v>41324</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="5">
-        <v>41324</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G17" s="5">
-        <v>42354</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G18" s="5">
-        <v>42439</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="5">
-        <v>42764</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G20" s="5">
-        <v>42764</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="5">
-        <v>42907</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="5">
-        <v>42907</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="5">
-        <v>43256</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="G24" s="5">
-        <v>43418</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="5">
-        <v>44055</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="5">
-        <v>44055</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="5">
-        <v>44331</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="5">
-        <v>43396</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="5">
-        <v>43396</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G30" s="5">
-        <v>43396</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G31" s="5">
-        <v>43184</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G32" s="5">
-        <v>43745</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" s="5">
-        <v>43075</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="5">
-        <v>43468</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" s="5">
-        <v>43833</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="I37" s="4"/>
-    </row>
-    <row r="38" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="2"/>
+      <c r="J40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
-    <hyperlink ref="H6" r:id="rId5"/>
-    <hyperlink ref="H7" r:id="rId6"/>
-    <hyperlink ref="H8" r:id="rId7"/>
-    <hyperlink ref="H9" r:id="rId8"/>
-    <hyperlink ref="H10" r:id="rId9"/>
-    <hyperlink ref="H11" r:id="rId10"/>
-    <hyperlink ref="H12" r:id="rId11"/>
-    <hyperlink ref="H13" r:id="rId12"/>
-    <hyperlink ref="H14" r:id="rId13"/>
-    <hyperlink ref="H15" r:id="rId14"/>
-    <hyperlink ref="H16" r:id="rId15"/>
-    <hyperlink ref="H17" r:id="rId16"/>
-    <hyperlink ref="H18" r:id="rId17"/>
-    <hyperlink ref="H19" r:id="rId18"/>
-    <hyperlink ref="H20" r:id="rId19"/>
-    <hyperlink ref="H21" r:id="rId20"/>
-    <hyperlink ref="H22" r:id="rId21"/>
-    <hyperlink ref="H23" r:id="rId22"/>
-    <hyperlink ref="H24" r:id="rId23"/>
-    <hyperlink ref="H25" r:id="rId24"/>
-    <hyperlink ref="H26" r:id="rId25"/>
-    <hyperlink ref="H27" r:id="rId26"/>
-    <hyperlink ref="H28" r:id="rId27"/>
-    <hyperlink ref="H29" r:id="rId28"/>
-    <hyperlink ref="H30" r:id="rId29"/>
-    <hyperlink ref="H31" r:id="rId30"/>
-    <hyperlink ref="H32" r:id="rId31"/>
-    <hyperlink ref="H33" r:id="rId32"/>
-    <hyperlink ref="H34" r:id="rId33"/>
-    <hyperlink ref="H35" r:id="rId34"/>
-    <hyperlink ref="H36" r:id="rId35"/>
-    <hyperlink ref="H37" r:id="rId36"/>
-    <hyperlink ref="H38" r:id="rId37"/>
-    <hyperlink ref="H39" r:id="rId38"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="I4" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="I6" r:id="rId5"/>
+    <hyperlink ref="I7" r:id="rId6"/>
+    <hyperlink ref="I8" r:id="rId7"/>
+    <hyperlink ref="I9" r:id="rId8"/>
+    <hyperlink ref="I10" r:id="rId9"/>
+    <hyperlink ref="I11" r:id="rId10"/>
+    <hyperlink ref="I12" r:id="rId11"/>
+    <hyperlink ref="I13" r:id="rId12"/>
+    <hyperlink ref="I14" r:id="rId13"/>
+    <hyperlink ref="I15" r:id="rId14"/>
+    <hyperlink ref="I16" r:id="rId15"/>
+    <hyperlink ref="I17" r:id="rId16"/>
+    <hyperlink ref="I18" r:id="rId17"/>
+    <hyperlink ref="I19" r:id="rId18"/>
+    <hyperlink ref="I20" r:id="rId19"/>
+    <hyperlink ref="I21" r:id="rId20"/>
+    <hyperlink ref="I22" r:id="rId21"/>
+    <hyperlink ref="I23" r:id="rId22"/>
+    <hyperlink ref="I24" r:id="rId23"/>
+    <hyperlink ref="I25" r:id="rId24"/>
+    <hyperlink ref="I26" r:id="rId25"/>
+    <hyperlink ref="I27" r:id="rId26"/>
+    <hyperlink ref="I28" r:id="rId27"/>
+    <hyperlink ref="I29" r:id="rId28"/>
+    <hyperlink ref="I30" r:id="rId29"/>
+    <hyperlink ref="I31" r:id="rId30"/>
+    <hyperlink ref="I32" r:id="rId31"/>
+    <hyperlink ref="I33" r:id="rId32"/>
+    <hyperlink ref="I34" r:id="rId33"/>
+    <hyperlink ref="I35" r:id="rId34"/>
+    <hyperlink ref="I37" r:id="rId35"/>
+    <hyperlink ref="I38" r:id="rId36"/>
+    <hyperlink ref="I39" r:id="rId37"/>
+    <hyperlink ref="I40" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>

--- a/漏洞信息 .xlsx
+++ b/漏洞信息 .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="334">
   <si>
     <t>漏洞攻击方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
   </si>
   <si>
     <t>影响的版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Activemq 反序列化漏洞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -586,10 +582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CVE-2016-3088 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -848,10 +840,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CVE-2015-5254</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>严重 9.4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -964,6 +952,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>严重 9.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CVE-2017-5638</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -972,7 +964,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CVE-2017-5638</t>
+    <t>CVE-2017-9791</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重 9.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2017-9805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2018-11776</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重 9.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重 9.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2020-17530</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重 9.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重 9.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-Cology WorkflowServiceXml RCE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/372782602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2017-18349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2017-18349</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastjson &lt;=1.2.47 反序列化任意代码执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastjson &lt;=1.2.62 反序列化任意代码执行漏洞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -980,70 +1028,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CVE-2017-9791</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严重 9.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE-2017-9805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE-2018-11776</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严重 9.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严重 9.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE-2020-17530</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严重 9.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严重 9.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-Cology WorkflowServiceXml RCE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://zhuanlan.zhihu.com/p/372782602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE-2017-18349</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVE-2017-18349</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fastjson &lt;=1.2.47 反序列化任意代码执行漏洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fastjson &lt;=1.2.62 反序列化任意代码执行漏洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严重 9.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CVE-2018-1273</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1073,10 +1057,6 @@
   </si>
   <si>
     <t>反序列化漏洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apache ActiveMQ是Apache研发的一套开源消息中间件，它支持Java消息服务、集群、Spring Framework等。Apache ActiveMQ 5.13.0之前5.x版本中存在安全漏洞，该漏洞源于程序未能限制可在代理中序列化的类。远程攻击者可借助特制的序列化的Java Message Service(JMS)ObjectMessage对象利用该漏洞执行任意代码。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1234,6 +1214,161 @@
   </si>
   <si>
     <t>CSRF漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache ActiveMQ是Apache研发的一套开源消息中间件，它支持Java消息服务、集群、Spring Framework等。Apache ActiveMQ 5.13.0之前5.x版本中存在安全漏洞，该漏洞源于程序未能限制可在代理中序列化的类。远程攻击者可借助特制的序列化的Java Message Service(JMS)ObjectMessage对象利用该漏洞执行任意代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CVE-2016-3088 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2015-5254</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activemq 反序列化漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022年全球网络安全漏洞TOP10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/603243258</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Framework JDK &gt;= 9 远程代码执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重 10.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程命令执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于Spring框架存在处理流程缺陷，攻击者可在远程条件下，实现对目标主机的后门文件写入和配置修改，继而通过后门文件访问获得目标主机权限。使用Spring框架或衍生框架构建网站等应用，且同时使用JDK版本在9及以上版本的，易受此漏洞攻击影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于Spring框架存在处理流程缺陷，攻击者可在远程条件下，实现对目标主机的后门文件写入和配置修改，继而通过后门文件访问获得目标主机权限。</t>
+  </si>
+  <si>
+    <t>CVE-2022-22965</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-22965</t>
+  </si>
+  <si>
+    <t>升级官方安全版本 &gt;= 5.3.18/5.2.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;5.3.18/5.2.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastjson &lt;= 1.2.80 反序列化任意代码执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高危 8.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fastjson:time-2022-0523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastjson已使用黑白名单用于防御反序列化漏洞，经研究该利用在特定条件下可绕过默认autoType关闭限制，攻击远程服务器，风险影响较大。建议fastjson用户尽快采取安全措施保障系统安全。特定依赖存在下影响 ≤1.2.80。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastjson已使用黑白名单用于防御反序列化漏洞，经研究该利用在特定条件下可绕过默认autoType关闭限制，攻击远程服务器，风险影响较大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反序列化任意代码执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级到1.2.80以上版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fastjson &lt;= 1.2.80 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://avd.aliyun.com/detail?id=AVD-2022-1243027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016到2019年最常被利用的10个安全漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.freebuf.com/articles/paper/281942.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2017-5638</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年度攻击者最常利用的漏洞TOP15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/507506992</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2021-44228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Log4j2 远程代码执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重 10.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于Apache Log4j2某些功能存在递归解析功能，攻击者可直接构造恶意请求，触发远程代码执行漏洞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程代码执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于Apache Log4j2某些功能存在递归解析功能，攻击者可直接构造恶意请求，触发远程代码执行漏洞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、排查应用是否引入了Apache log4j-core Jar包，若存在依赖引入，且在受影响版本范围内，则可能存在漏洞影响。同时为了避免在Apache Log4j 2.15.0版本中某些自定义配置而可能导致的JNDI注入或拒绝服务攻击，请尽快升级Apache Log4j2所有相关应用到 2.16.0 或者 2.12.2 及其以上版本，地址 https://logging.apache.org/log4j/2.x/download.html 。
+2、对于 Java 8 及其以上用户，建议升级 Apache Log4j2 至 2.16.0 及以上版本。
+3、对于 Java 7 用户，建议升级至 Apache Log4j 2.12.2 及以上版本，该版本为安全版本，用于解决兼容性问题。
+4、对于其余暂时无法升级版本的用户，建议删除JndiLookup，可用以下命令 zip -q -d log4j-core-*.jar org/apache/logging/log4j/core/lookup/JndiLookup.class
+5、升级已知受影响的应用及组件，如 spring-boot-starter-log4j2/Apache Struts2/Apache Solr/Apache Druid/Apache Flink
+6、其余临时缓解方案可参见 https://logging.apache.org/log4j/2.x/security.html 。目前已有安全版本，强烈建议不要采用临时缓解方案进行防御。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2021-44228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.0-beta9到2.12.2版本(不包括2.12.2)、2.13.0到2.16.0版本(不包括2.16.0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1322,7 +1457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1356,6 +1491,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1637,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1660,19 +1800,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>0</v>
@@ -1692,1089 +1832,1089 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>204</v>
+        <v>298</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="H2" s="6">
         <v>42186</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>139</v>
+        <v>297</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="H3" s="6">
         <v>42439</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H4" s="6">
         <v>44217</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="H5" s="6">
         <v>42492</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H6" s="6">
         <v>42954</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H7" s="6">
         <v>43418</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H8" s="6">
         <v>43752</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H9" s="6">
         <v>44273</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H10" s="6">
         <v>44257</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H11" s="6">
         <v>40308</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="H12" s="6">
         <v>40916</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="6">
         <v>40817</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="6">
         <v>41324</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="6">
         <v>41324</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="6">
         <v>41324</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="G17" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H17" s="6">
         <v>42354</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H18" s="6">
         <v>42439</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>233</v>
+        <v>322</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" s="6">
         <v>42764</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H20" s="6">
         <v>42764</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" s="6">
         <v>42907</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H22" s="6">
         <v>42907</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H23" s="6">
         <v>43256</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H24" s="6">
         <v>43418</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H25" s="6">
         <v>44055</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>132</v>
       </c>
       <c r="H26" s="6">
         <v>44055</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="6">
         <v>44331</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D28" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="G28" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H28" s="6">
         <v>43396</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D29" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="G29" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H29" s="6">
         <v>43396</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" s="6">
         <v>43396</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D31" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>109</v>
-      </c>
       <c r="G31" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H31" s="6">
         <v>43184</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H32" s="6">
         <v>43745</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="H33" s="6">
         <v>43075</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="H34" s="6">
         <v>43468</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>76</v>
       </c>
       <c r="H35" s="6">
         <v>43833</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2786,96 +2926,245 @@
       <c r="I36" s="7"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G38" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="3"/>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H42" s="15">
+        <v>44571</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="H43" s="15">
+        <v>44704</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="6">
+        <v>42764</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H47" s="15">
+        <v>44526</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>333</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2918,8 +3207,14 @@
     <hyperlink ref="I38" r:id="rId36"/>
     <hyperlink ref="I39" r:id="rId37"/>
     <hyperlink ref="I40" r:id="rId38"/>
+    <hyperlink ref="B41" r:id="rId39"/>
+    <hyperlink ref="I43" r:id="rId40"/>
+    <hyperlink ref="B44" r:id="rId41"/>
+    <hyperlink ref="I45" r:id="rId42"/>
+    <hyperlink ref="B46" r:id="rId43"/>
+    <hyperlink ref="I47" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
--- a/漏洞信息 .xlsx
+++ b/漏洞信息 .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="351">
   <si>
     <t>漏洞攻击方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1369,6 +1369,74 @@
   </si>
   <si>
     <t>2.0-beta9到2.12.2版本(不包括2.12.2)、2.13.0到2.16.0版本(不包括2.16.0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件目录列出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意文件写入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用../将文件文件写入敏感目录中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用../跳出当前目录，查看其他目录内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意文件删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用../删除任意文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令注入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常见渗透命令、敏感操作、反序列化执行命令等的防护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXE漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意上传文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multipart方式上传php、jsp等脚本文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSRF防护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用JSTL import 的任意文件包含</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL重定向漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过修改URL，重定向到钓鱼网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JNDI注入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log4j的JDNI注入漏洞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1777,17 +1845,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
@@ -2818,7 +2886,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>249</v>
       </c>
@@ -2850,7 +2918,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>250</v>
       </c>
@@ -2882,7 +2950,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>252</v>
       </c>
@@ -2914,7 +2982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -2926,7 +2994,7 @@
       <c r="I36" s="7"/>
       <c r="J36" s="5"/>
     </row>
-    <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
         <v>294</v>
@@ -2948,7 +3016,7 @@
       </c>
       <c r="J37" s="5"/>
     </row>
-    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
         <v>158</v>
@@ -2970,7 +3038,7 @@
       </c>
       <c r="J38" s="5"/>
     </row>
-    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
         <v>295</v>
@@ -2992,7 +3060,7 @@
       </c>
       <c r="J39" s="5"/>
     </row>
-    <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="8" t="s">
         <v>167</v>
@@ -3014,155 +3082,297 @@
       </c>
       <c r="J40" s="9"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9"/>
+      <c r="B41" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="9"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="9"/>
+      <c r="B42" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="9"/>
+      <c r="B43" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="9"/>
+    </row>
+    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="9"/>
+      <c r="B45" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="9"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="9"/>
+      <c r="B46" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="9"/>
+    </row>
+    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9"/>
+      <c r="B47" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="9"/>
+    </row>
+    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9"/>
+      <c r="B48" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="9"/>
+    </row>
+    <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="9"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B50" s="14" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="H42" s="15">
+      <c r="H51" s="15">
         <v>44571</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K51" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G52" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H52" s="15">
         <v>44704</v>
       </c>
-      <c r="I43" s="16" t="s">
+      <c r="I52" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J52" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B53" s="17" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+    <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D54" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F54" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G54" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H54" s="6">
         <v>42764</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I54" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="J45" s="5" t="s">
+      <c r="J54" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B55" s="17" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F56" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H56" s="15">
         <v>44526</v>
       </c>
-      <c r="I47" s="16" t="s">
+      <c r="I56" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J56" s="1" t="s">
         <v>333</v>
       </c>
     </row>
@@ -3207,12 +3417,12 @@
     <hyperlink ref="I38" r:id="rId36"/>
     <hyperlink ref="I39" r:id="rId37"/>
     <hyperlink ref="I40" r:id="rId38"/>
-    <hyperlink ref="B41" r:id="rId39"/>
-    <hyperlink ref="I43" r:id="rId40"/>
-    <hyperlink ref="B44" r:id="rId41"/>
-    <hyperlink ref="I45" r:id="rId42"/>
-    <hyperlink ref="B46" r:id="rId43"/>
-    <hyperlink ref="I47" r:id="rId44"/>
+    <hyperlink ref="B50" r:id="rId39"/>
+    <hyperlink ref="I52" r:id="rId40"/>
+    <hyperlink ref="B53" r:id="rId41"/>
+    <hyperlink ref="I54" r:id="rId42"/>
+    <hyperlink ref="B55" r:id="rId43"/>
+    <hyperlink ref="I56" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>

--- a/漏洞信息 .xlsx
+++ b/漏洞信息 .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="330">
   <si>
     <t>漏洞攻击方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,18 +61,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Druid filter 远程代码执行漏洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apache Druid &lt; 0.20.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Shiro默认密钥致命令执行漏洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目前厂商已经发布了升级补丁以修复此安全问题，补丁获取链接： http://shiro.apache.org/download.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Solr XXE &amp; RCE 漏洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apache Solr&lt; 7.1.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,10 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Solr:time-2021-0318</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将solr放置内网</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +110,6 @@
   </si>
   <si>
     <t>漏洞名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apache Solr 7.0.0 - 7.7.3,Apache Solr 8.0.0 - 8.8.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -490,10 +470,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apache Struts2 2.0.0～2.1.8.1 远程命令执行漏洞 S2-005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Apache Struts2 2.0.0～2.3.17 远程命令执行漏洞S2-008</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,10 +534,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fastjson &lt;=1.2.24 反序列化任意代码执行漏洞(Fastjson: VER-1224-1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fastjson &lt;=1.2.24 反序列化任意代码执行漏洞(Fastjson:VER-1224-2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -698,10 +670,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-1966</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-2251</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -842,10 +810,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CVE-2013-2135</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>低危 2.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1003,10 +967,6 @@
   </si>
   <si>
     <t>任意文件读取漏洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSRF漏洞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1067,14 +1027,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>反序列化任意代码执行漏洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目录遍历漏洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> VMware Spring Cloud Config 2.2.3之前的2.2.x版本、2.1.9之前的2.1.x版本和不再受支持的旧版本中的Spring-cloud-config-server模块存在路径遍历漏洞，该漏洞源于程序没有正确验证用户请求。攻击者可借助特制URL利用该漏洞查看系统上的任意文件。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1092,10 +1044,6 @@
   </si>
   <si>
     <t>Activemq 反序列化漏洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring Framework JDK &gt;= 9 远程代码执行漏洞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1194,10 +1142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>远程命令执行漏洞（RCE）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>具体漏洞描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1218,15 +1162,195 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表达式注入漏洞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>表达式外部可控导致攻击者注入恶意表达式实现任意代码执行。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>由于配置缺陷，存在目录可浏览漏洞，会导致隐私文件与目录泄露，如数据库备份文件、配置文件等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程命令执行漏洞（RCE）（Top25）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反序列化任意代码执行漏洞（TOP25）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录遍历漏洞（TOP25）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSRF漏洞（TOP25）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Solr:time-2021-0318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2013-2135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2013-2135</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Druid filter 远程代码执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Shiro默认密钥致命令执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Solr XXE &amp; RCE 漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注入漏洞（TOP25）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2018-8010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Solr XML外部实体注入漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中危 5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Solr 6.0.0版本至6.6.3版本和7.0.0版本至7.3.0版本中的solrconfig.xml、schema.xml和managed-schema（Solr配置文件）存在XML外部实体注入漏洞。攻击者可利用该漏洞读取Solr服务器及内部网络上的任意本地文件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击者可利用该漏洞读取Solr服务器及内部网络上的任意本地文件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前厂商已发布升级补丁以修复漏洞，补丁获取链接：https://issues.apache.org/jira/browse/SOLR-12316</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2018-8010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Solr 7.0.0 - 7.7.3,Apache Solr 8.0.0 - 8.8.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Struts2 2.0.0～2.1.8.1 远程命令执行漏洞 S2-005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Framework JDK &gt;= 9 远程代码执行漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fastjson &lt;=1.2.24 反序列化任意代码执行漏洞(Fastjson: VER-1224-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Kylin 命令注入漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2022-44621</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高危 7.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Kylin命令注入漏洞(CVE-2022-44621)是由于系统Controller未验证参数，攻击者可以通过HTTP请求进行命令注入攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击者可以通过HTTP请求进行命令注入攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方已发布安全更新，请尽快升级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-44621</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Solr 6.0.0-6.6.3、Apache Solr 7.0.0-7.3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Kylin&lt;4.0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2022-23305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache log4j JDBCAppender SQL注入漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低危 3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Log4j 存在SQL注入漏洞，该漏洞源于 Log4j 1.2.x 中的 JDBCAppender 接受 SQL 语句作为配置参数，其中要插入的值是来自 PatternLayout 的转换器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击者通过将精心制作的字符串输入到记录的应用程序的输入字段或标题中来操纵 SQL，从而允许执行意外的 SQL 查询。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前厂商已发布升级补丁以修复漏洞，补丁获取链接：https://lists.apache.org/thread/pt6lh3pbsvxqlwlp4c5l798dv2hkc85y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2022-23305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2&lt;=Apache Log4j&lt;=1.2.17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVE-2020-11979</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Ant注入漏洞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低危 3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apache Ant 1.10.8版本存在注入漏洞。该漏洞源于用户输入构造命令、数据结构或记录的操作过程中，网络系统或产品缺乏对用户输入数据的正确验证，未过滤或未正确过滤掉其中的特殊元素，导致系统或产品产生解析或解释方式错误。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该漏洞源于用户输入构造命令、数据结构或记录的操作过程中，网络系统或产品缺乏对用户输入数据的正确验证，未过滤或未正确过滤掉其中的特殊元素，导致系统或产品产生解析或解释方式错误。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cve.mitre.org/cgi-bin/cvename.cgi?name=CVE-2020-11979</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apache Ant 1.10.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1361,9 +1485,6 @@
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1397,8 +1518,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1409,18 +1533,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1439,11 +1551,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1728,13 +1852,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
@@ -1747,1271 +1872,1381 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="5">
+        <v>42439</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="5">
+        <v>44217</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="5">
+        <v>42492</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="5">
+        <v>42954</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="5">
+        <v>43418</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="5">
+        <v>43752</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4" t="s">
+      <c r="G8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="5">
+        <v>40308</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="I9" s="5">
+        <v>40916</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="5">
+        <v>40817</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="5">
+        <v>41324</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="5">
+        <v>41324</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="I13" s="5">
+        <v>42354</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="5">
+        <v>42439</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="5">
+        <v>42764</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="5">
+        <v>42764</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="5">
+        <v>42907</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="5">
+        <v>42907</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="5">
+        <v>43256</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="5">
+        <v>43418</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" s="5">
+        <v>44055</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" s="5">
+        <v>44055</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="5">
+        <v>43075</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I24" s="12">
+        <v>44571</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I25" s="12">
+        <v>44526</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="30"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="5">
+        <v>44331</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="5">
+        <v>43396</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" s="5">
+        <v>43396</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="5">
+        <v>43396</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="32"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="5">
+        <v>42186</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="32"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I31" s="5">
+        <v>43184</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="32"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="I32" s="5">
+        <v>43745</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="I33" s="12">
+        <v>44704</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I34" s="5">
+        <v>43468</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" s="5">
+        <v>43833</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="5">
+        <v>44273</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="114" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I37" s="5">
+        <v>44257</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="6">
-        <v>42439</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="6">
-        <v>44217</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="5" t="s">
+      <c r="D38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="5">
+        <v>41324</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="6">
-        <v>42492</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="I5" s="6">
-        <v>42954</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="21"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I6" s="6">
-        <v>43418</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7" s="6">
-        <v>43752</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" s="6">
-        <v>40308</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="6">
-        <v>40916</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="K38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="6">
-        <v>40817</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="6">
-        <v>41324</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="6">
-        <v>41324</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="21"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I13" s="6">
-        <v>42354</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="6">
-        <v>42439</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="6">
-        <v>42764</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="6">
-        <v>42764</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="21"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="6">
-        <v>42907</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I18" s="6">
-        <v>42907</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I19" s="6">
-        <v>43256</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="I20" s="6">
-        <v>43418</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I21" s="6">
-        <v>44055</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I22" s="6">
-        <v>44055</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="6">
-        <v>43075</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="I24" s="13">
-        <v>44571</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="I25" s="13">
-        <v>44526</v>
-      </c>
-      <c r="J25" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I26" s="6">
-        <v>44331</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>293</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="6">
-        <v>43396</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I28" s="6">
-        <v>43396</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="6">
-        <v>43396</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I30" s="6">
-        <v>42186</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I31" s="6">
-        <v>43184</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="I32" s="6">
-        <v>43745</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="I33" s="13">
-        <v>44704</v>
-      </c>
-      <c r="J33" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="B34" s="29" t="s">
+    </row>
+    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I34" s="6">
-        <v>43468</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I35" s="6">
-        <v>43833</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="57" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>294</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I36" s="6">
-        <v>44273</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="114" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>295</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I37" s="6">
-        <v>44257</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>297</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="6">
-        <v>41324</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K38" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="5"/>
+      <c r="G39" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="I39" s="5">
+        <v>43168</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="I40" s="12">
+        <v>44867</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="I41" s="12">
+        <v>44578</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I42" s="12">
+        <v>43942</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="9"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="8"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I55" s="13"/>
+      <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="14"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="13"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C57" s="23"/>
-      <c r="D57" s="25"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="17"/>
     </row>
     <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="5"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="4"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C59" s="23"/>
-      <c r="D59" s="25"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="17"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H60" s="3"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="14"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
     <mergeCell ref="A27:A33"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A2:A26"/>
@@ -3057,8 +3292,12 @@
     <hyperlink ref="J4" r:id="rId34"/>
     <hyperlink ref="J33" r:id="rId35"/>
     <hyperlink ref="J25" r:id="rId36"/>
+    <hyperlink ref="J39" r:id="rId37"/>
+    <hyperlink ref="J40" r:id="rId38"/>
+    <hyperlink ref="J41" r:id="rId39"/>
+    <hyperlink ref="J42" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>